--- a/4. results/ADHD core symptoms [26 weeks, self]/ADHD core symptoms [26 weeks, self] - dataset_CINeMA2.xlsx
+++ b/4. results/ADHD core symptoms [26 weeks, self]/ADHD core symptoms [26 weeks, self] - dataset_CINeMA2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
   <si>
     <t>id</t>
   </si>
@@ -56,6 +56,12 @@
     <t>6</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>Janssen 2018</t>
   </si>
   <si>
@@ -65,6 +71,9 @@
     <t>Hanssen 2023</t>
   </si>
   <si>
+    <t>Dittner 2014</t>
+  </si>
+  <si>
     <t>mindfulness + TAU</t>
   </si>
   <si>
@@ -84,6 +93,9 @@
   </si>
   <si>
     <t>ASRS</t>
+  </si>
+  <si>
+    <t>Adult Barkley CSS</t>
   </si>
   <si>
     <t>2018</t>
@@ -178,10 +190,10 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
         <v>23.4</v>
@@ -193,10 +205,10 @@
         <v>52.0</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I2" t="e">
         <v>#N/A</v>
@@ -207,10 +219,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
         <v>28.2</v>
@@ -222,10 +234,10 @@
         <v>56.0</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I3" t="e">
         <v>#N/A</v>
@@ -236,10 +248,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
         <v>68.43</v>
@@ -251,13 +263,13 @@
         <v>23.0</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -265,10 +277,10 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
         <v>75.89</v>
@@ -280,13 +292,13 @@
         <v>19.0</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
@@ -294,10 +306,10 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
         <v>43.39</v>
@@ -309,10 +321,10 @@
         <v>21.0</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I6" t="e">
         <v>#N/A</v>
@@ -323,10 +335,10 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
         <v>47.59</v>
@@ -338,12 +350,70 @@
         <v>27.0</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="F8" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="e">
         <v>#N/A</v>
       </c>
     </row>
